--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Rates/XccyCurves.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Rates/XccyCurves.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Rates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Rates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59E7DF3-BD83-437B-B91D-FCE143DDB113}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="270" windowWidth="14955" windowHeight="12525" tabRatio="646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="0" windowWidth="26370" windowHeight="14820" tabRatio="646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DiscountCurves" sheetId="9" r:id="rId1"/>
@@ -25,7 +26,15 @@
     <definedName name="Rates" localSheetId="0">DiscountCurves!$J$17:$J$33</definedName>
     <definedName name="Spreads" localSheetId="0">DiscountCurves!$M$17:$M$33</definedName>
   </definedNames>
-  <calcPr calcId="171027" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1337,7 +1346,7 @@
       </c>
       <c r="B3" s="20">
         <f ca="1">TODAY()</f>
-        <v>43135</v>
+        <v>43647</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -1347,7 +1356,7 @@
       </c>
       <c r="G3" s="20">
         <f ca="1">B3</f>
-        <v>43135</v>
+        <v>43647</v>
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
@@ -1357,7 +1366,7 @@
       </c>
       <c r="L3" s="20">
         <f ca="1">G3</f>
-        <v>43135</v>
+        <v>43647</v>
       </c>
       <c r="M3" s="29"/>
       <c r="N3" s="3"/>
@@ -1369,7 +1378,7 @@
       </c>
       <c r="B4" s="17">
         <f ca="1">B3</f>
-        <v>43135</v>
+        <v>43647</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
@@ -1379,7 +1388,7 @@
       </c>
       <c r="G4" s="17">
         <f ca="1">B4</f>
-        <v>43135</v>
+        <v>43647</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -1389,7 +1398,7 @@
       </c>
       <c r="L4" s="17">
         <f ca="1">G4</f>
-        <v>43135</v>
+        <v>43647</v>
       </c>
       <c r="M4" s="29"/>
       <c r="N4" s="3"/>
